--- a/app/config/tables/follow/forms/follow/follow.xlsx
+++ b/app/config/tables/follow/forms/follow/follow.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\follow\forms\follow\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1361" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="3" r:id="rId2"/>
     <sheet name="settings" sheetId="2" r:id="rId3"/>
+    <sheet name="properties" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>clause</t>
   </si>
@@ -152,9 +158,6 @@
     <t>display.title</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -186,6 +189,57 @@
   </si>
   <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>["FOL_date","FOL_B_AnimID","FOL_CL_community_id","FOL_time_begin","FOL_time_end","FOL_flag_begin_in_nest","FOL_flag_end_in_nest","FOL_duration","FOL_distance_traveled","FOL_am_observer1","FOL_am_observer2","FOL_pm_observer1","FOL_pm_observer2","FOL_study_code1","FOL_study_code2","FOL_day","FOL_month","FOL_year"]</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>colOrder</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>defaultViewType</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>detailViewFileName</t>
+  </si>
+  <si>
+    <t>configpath</t>
+  </si>
+  <si>
+    <t>config/tables/follow/html/follow_detail.html</t>
+  </si>
+  <si>
+    <t>listViewFileName</t>
+  </si>
+  <si>
+    <t>config/tables/follow/html/follow_list.html</t>
   </si>
 </sst>
 </file>
@@ -204,6 +258,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -266,6 +321,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -593,20 +656,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="54.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="54.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -640,7 +703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
@@ -651,10 +714,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
@@ -668,7 +731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -682,7 +745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
@@ -696,14 +759,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -712,14 +775,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>19</v>
@@ -728,11 +791,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -742,11 +805,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
@@ -756,7 +819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
@@ -770,7 +833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
@@ -781,7 +844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
@@ -792,7 +855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
@@ -803,7 +866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
@@ -814,7 +877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
@@ -825,9 +888,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>34</v>
@@ -836,9 +899,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>36</v>
@@ -847,9 +910,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>38</v>
@@ -876,42 +939,42 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -929,17 +992,17 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
@@ -950,31 +1013,31 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="B3" s="6">
         <v>20140715</v>
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -985,4 +1048,107 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/config/tables/follow/forms/follow/follow.xlsx
+++ b/app/config/tables/follow/forms/follow/follow.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1361" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1361" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>clause</t>
   </si>
@@ -155,9 +155,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -240,12 +237,18 @@
   </si>
   <si>
     <t>config/tables/follow/html/follow_list.html</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -656,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -686,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -714,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -766,7 +769,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -782,7 +785,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>19</v>
@@ -795,7 +798,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -809,7 +812,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
@@ -890,7 +893,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>34</v>
@@ -901,7 +904,7 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>36</v>
@@ -912,7 +915,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>38</v>
@@ -946,10 +949,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -957,24 +960,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +995,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1010,21 +1013,21 @@
         <v>41</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="6">
         <v>20140715</v>
@@ -1033,11 +1036,11 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1065,13 +1068,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1082,70 +1085,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
       <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
       <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
       <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
         <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/follow/forms/follow/follow.xlsx
+++ b/app/config/tables/follow/forms/follow/follow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1361" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500"/>
+    <workbookView xWindow="1361" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>clause</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>FOL_date</t>
@@ -659,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -689,239 +686,239 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -938,46 +935,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1007,27 +1005,27 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6">
         <v>20140715</v>
@@ -1036,11 +1034,11 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1068,87 +1066,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
       <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
       <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
       <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
